--- a/project.xlsx
+++ b/project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="155">
   <si>
     <t>INSTRUCTION</t>
   </si>
@@ -155,9 +155,6 @@
     <t>ANDI</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>001F7793</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>800F1783</t>
   </si>
   <si>
-    <t>make sure this extends zeros</t>
-  </si>
-  <si>
     <t>001F0783</t>
   </si>
   <si>
@@ -327,17 +321,188 @@
   </si>
   <si>
     <t>800F5783</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>1 BIT</t>
+  </si>
+  <si>
+    <t>6 BIT</t>
+  </si>
+  <si>
+    <t>IMMI  (12)</t>
+  </si>
+  <si>
+    <t>IMMI  (10:5)</t>
+  </si>
+  <si>
+    <t>3 BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSB 3 BIT </t>
+  </si>
+  <si>
+    <t>4 BIT</t>
+  </si>
+  <si>
+    <t>IMMI (4:1)</t>
+  </si>
+  <si>
+    <t>IMMI (11)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>5 BIT</t>
+  </si>
+  <si>
+    <t>7 BIT</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>IMMI(11:5)</t>
+  </si>
+  <si>
+    <t>IMMI(4:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 BIT </t>
+  </si>
+  <si>
+    <t>1 B IT</t>
+  </si>
+  <si>
+    <t>U TYPE</t>
+  </si>
+  <si>
+    <t>20 BIT</t>
+  </si>
+  <si>
+    <t>IMMI(31:12)</t>
+  </si>
+  <si>
+    <t>FOR LUI</t>
+  </si>
+  <si>
+    <t>FOR AUIPC</t>
+  </si>
+  <si>
+    <t>OPCODE = 011 0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd </t>
+  </si>
+  <si>
+    <t>rs1</t>
+  </si>
+  <si>
+    <t>rs2</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>J TYPE</t>
+  </si>
+  <si>
+    <t>JAL</t>
+  </si>
+  <si>
+    <t>10 BIT</t>
+  </si>
+  <si>
+    <t>IMMI(20)</t>
+  </si>
+  <si>
+    <t>IMMI(10:1)</t>
+  </si>
+  <si>
+    <t>3BIT</t>
+  </si>
+  <si>
+    <t>IMMI(11)</t>
+  </si>
+  <si>
+    <t>8 BIT</t>
+  </si>
+  <si>
+    <t>IMMI(19:12)</t>
+  </si>
+  <si>
+    <t>JALR</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>J RA</t>
+  </si>
+  <si>
+    <t>0283A283</t>
+  </si>
+  <si>
+    <t>0283D283</t>
+  </si>
+  <si>
+    <t>0283C283</t>
+  </si>
+  <si>
+    <t>fe010113</t>
+  </si>
+  <si>
+    <t>OPCODE = 010 0111</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>00f75663</t>
+  </si>
+  <si>
+    <t>immi(0)</t>
+  </si>
+  <si>
+    <t>IMMI FIELD</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>IMMI(0)</t>
+  </si>
+  <si>
+    <t>010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="165" formatCode="0000000"/>
+    <numFmt numFmtId="165" formatCode="000"/>
+    <numFmt numFmtId="166" formatCode="00000000"/>
+    <numFmt numFmtId="167" formatCode="000000"/>
+    <numFmt numFmtId="168" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +521,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -408,13 +580,40 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -698,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T91"/>
+  <dimension ref="A2:T148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,6 +1975,12 @@
       <c r="A29" s="5"/>
       <c r="D29" s="5"/>
       <c r="F29" s="1"/>
+      <c r="M29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
@@ -1789,12 +1994,12 @@
       <c r="D30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="str">
+      <c r="F30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="13" t="str">
         <f>CONCATENATE(F30,F31)</f>
-        <v>00</v>
+        <v>00000000</v>
       </c>
       <c r="H30" s="2" t="str">
         <f>BIN2HEX(G30,2)</f>
@@ -1802,13 +2007,22 @@
       </c>
       <c r="I30" s="2" t="str">
         <f>CONCATENATE(H30,H32,H33,H35,H36,H37,H39)</f>
-        <v>00F777B3</v>
+        <v>00628033</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="L30" s="12">
+        <v>1410433</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -1828,10 +2042,19 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="L31" s="12">
+        <v>41410433</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -1842,20 +2065,29 @@
         <v>21</v>
       </c>
       <c r="F32" s="7">
-        <v>1111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="2" t="str">
         <f>BIN2HEX(F32)</f>
-        <v>F</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="L32" s="12">
+        <v>1411433</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="C33" s="5" t="s">
         <v>18</v>
@@ -1867,23 +2099,26 @@
         <v>21</v>
       </c>
       <c r="F33" s="7">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2" t="str">
         <f>BIN2HEX(F33)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="L33" s="12">
+        <v>1412433</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1891,19 +2126,22 @@
         <v>22</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="L34" s="12">
+        <v>1413433</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="C35" s="5" t="s">
         <v>19</v>
@@ -1912,25 +2150,28 @@
       <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>43</v>
+      <c r="F35" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G35" s="2" t="str">
         <f>CONCATENATE(F34,F35)</f>
-        <v>0111</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" ref="H35" si="17">BIN2HEX(G35)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="L35" s="12">
+        <v>1414433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
@@ -1942,20 +2183,23 @@
         <v>21</v>
       </c>
       <c r="F36" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="str">
         <f>BIN2HEX(F36)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="L36" s="12">
+        <v>1415433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1963,24 +2207,27 @@
         <v>22</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2" t="str">
         <f>CONCATENATE(F37,F38)</f>
-        <v>1011</v>
+        <v>0011</v>
       </c>
       <c r="H37" s="2" t="str">
         <f>BIN2HEX(G37)</f>
-        <v>B</v>
+        <v>3</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="L37" s="12">
+        <v>41415433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="C38" s="5" t="s">
         <v>17</v>
@@ -1991,17 +2238,20 @@
       <c r="E38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="L38" s="12">
+        <v>1416433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="E39" s="2" t="s">
         <v>21</v>
@@ -2014,24 +2264,33 @@
         <v>3</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="L39" s="12">
+        <v>1417433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
@@ -2045,15 +2304,15 @@
         <v>21</v>
       </c>
       <c r="F43" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="str">
         <f>BIN2HEX(F43)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>CONCATENATE(H43,H44,H45,H46,H48,H49,H51,H52)</f>
-        <v>80038093</v>
+        <v>00800013</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>34</v>
@@ -2061,14 +2320,23 @@
       <c r="K43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="L43" s="2">
+        <v>2830393</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="2">
         <v>4294965248</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2088,17 +2356,24 @@
       <c r="K44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="L44" s="12"/>
+      <c r="M44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" s="2">
+        <v>8</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R44" s="2">
         <v>4294967295</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2106,11 +2381,11 @@
         <v>21</v>
       </c>
       <c r="F45" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>36</v>
@@ -2118,11 +2393,12 @@
       <c r="K45" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="L45" s="12"/>
       <c r="O45" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="C46" s="5" t="s">
         <v>18</v>
@@ -2134,11 +2410,11 @@
         <v>21</v>
       </c>
       <c r="F46" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>39</v>
@@ -2146,8 +2422,9 @@
       <c r="K46" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2155,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>41</v>
@@ -2163,8 +2440,9 @@
       <c r="K47" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="C48" s="5" t="s">
         <v>19</v>
@@ -2172,26 +2450,27 @@
       <c r="D48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>83</v>
+      <c r="F48" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G48" s="2" t="str">
         <f>CONCATENATE(F47,F48)</f>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="H48" s="2" t="str">
         <f>BIN2HEX(G48)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="10"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L48" s="12"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>18</v>
@@ -2210,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2218,10 +2497,10 @@
         <v>30</v>
       </c>
       <c r="F50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="C51" s="5" t="s">
         <v>17</v>
@@ -2232,19 +2511,25 @@
       <c r="E51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="2" t="str">
         <f>CONCATENATE(F50,F51)</f>
-        <v>1001</v>
+        <v>0001</v>
       </c>
       <c r="H51" s="2" t="str">
         <f>BIN2HEX(G51)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O51" s="14">
+        <v>800013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="E52" s="2" t="s">
         <v>21</v>
@@ -2256,16 +2541,19 @@
         <f>BIN2HEX(F52)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O52" s="12">
+        <v>8067</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>17</v>
@@ -2273,34 +2561,34 @@
       <c r="D55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="8">
-        <v>100000</v>
+      <c r="F55" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="G55" s="2" t="str">
         <f>CONCATENATE(F55,F56)</f>
-        <v>1000000</v>
+        <v>00</v>
       </c>
       <c r="H55" s="2" t="str">
         <f>BIN2HEX(G55,2)</f>
-        <v>40</v>
+        <v>00</v>
       </c>
       <c r="I55" s="2" t="str">
         <f>CONCATENATE(H55,H57,H58,H60,H61,H62,H64)</f>
-        <v>4057D793</v>
+        <v>00700793</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K55" s="2">
         <v>279793</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C56" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -2309,39 +2597,39 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="7">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H57" s="2" t="str">
         <f>BIN2HEX(F57)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M57" s="2">
+        <v>54</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P57" s="2">
         <v>4294967295</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C58" s="5" t="s">
         <v>18</v>
       </c>
@@ -2352,36 +2640,36 @@
         <v>21</v>
       </c>
       <c r="F58" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="str">
         <f>BIN2HEX(F58)</f>
-        <v>7</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" s="2">
         <v>2147483647</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" s="2">
         <v>2147483648</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C60" s="5" t="s">
         <v>19</v>
       </c>
@@ -2391,19 +2679,19 @@
       <c r="E60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>53</v>
+      <c r="F60" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G60" s="2" t="str">
         <f>CONCATENATE(F59,F60)</f>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="H60" s="2" t="str">
         <f t="shared" ref="H60" si="19">BIN2HEX(G60)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
         <v>18</v>
       </c>
@@ -2420,8 +2708,11 @@
         <f>BIN2HEX(F61)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J61" s="2">
+        <v>700793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="2" t="s">
@@ -2439,7 +2730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C63" s="5" t="s">
         <v>17</v>
       </c>
@@ -2449,11 +2740,11 @@
       <c r="E63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E64" s="2" t="s">
         <v>21</v>
       </c>
@@ -2465,12 +2756,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>27</v>
@@ -2482,27 +2773,39 @@
         <v>21</v>
       </c>
       <c r="F67" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="str">
         <f>BIN2HEX(F67)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="str">
         <f>CONCATENATE(H67,H68,H69,H70,H72,H73,H75,H76)</f>
-        <v>800F0783</v>
+        <v>02845783</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="M67" s="12">
+        <v>450783</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O67" s="2">
+        <v>28</v>
+      </c>
+      <c r="P67" s="16">
+        <v>2838283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2510,23 +2813,35 @@
         <v>21</v>
       </c>
       <c r="F68" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H68" s="2" t="str">
         <f t="shared" ref="H68:H70" si="20">BIN2HEX(F68)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="M68" s="12">
+        <v>451783</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O68" s="2">
+        <v>7</v>
+      </c>
+      <c r="P68" s="16">
+        <v>2839283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2534,23 +2849,35 @@
         <v>21</v>
       </c>
       <c r="F69" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H69" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="M69" s="12">
+        <v>452783</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O69" s="2">
+        <v>5</v>
+      </c>
+      <c r="P69" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="C70" s="5" t="s">
         <v>18</v>
@@ -2562,23 +2889,29 @@
         <v>21</v>
       </c>
       <c r="F70" s="7">
-        <v>1111</v>
+        <v>100</v>
       </c>
       <c r="H70" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>F</v>
+        <v>4</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="M70" s="12">
+        <v>454783</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2589,19 +2922,22 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="M71" s="12">
+        <v>455783</v>
+      </c>
+      <c r="P71" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="C72" s="5" t="s">
         <v>19</v>
@@ -2609,19 +2945,19 @@
       <c r="D72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>83</v>
+      <c r="F72" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G72" s="2" t="str">
         <f>CONCATENATE(F71,F72)</f>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="H72" s="2" t="str">
         <f>BIN2HEX(G72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="C73" s="5" t="s">
         <v>18</v>
@@ -2639,8 +2975,10 @@
         <f>BIN2HEX(F73)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2650,8 +2988,10 @@
       <c r="F74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L74" s="12"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="C75" s="5" t="s">
         <v>17</v>
@@ -2662,8 +3002,8 @@
       <c r="E75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>83</v>
+      <c r="F75" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G75" s="2" t="str">
         <f>CONCATENATE(F74,F75)</f>
@@ -2673,8 +3013,10 @@
         <f>BIN2HEX(G75)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L75" s="12"/>
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="E76" s="2" t="s">
         <v>21</v>
@@ -2686,70 +3028,1064 @@
         <f>BIN2HEX(F76)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L76" s="12"/>
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L77" s="12"/>
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C80" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="2" t="str">
+        <f>CONCATENATE(F79,F80)</f>
+        <v>1000</v>
+      </c>
+      <c r="H80" s="2" t="str">
+        <f>BIN2HEX(G80)</f>
+        <v>8</v>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f>CONCATENATE(H80,H82,H83,H84,H86,H87,H89,H90)</f>
+        <v>80E7D863</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M80" s="12"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K81" s="18" t="str">
+        <f>CONCATENATE(F79,F88,F80,F87,F91)</f>
+        <v>1000010000</v>
+      </c>
+      <c r="L81" s="12" t="str">
+        <f>BIN2HEX(K81)</f>
+        <v>FFFFFFFE10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="str">
+        <f>CONCATENATE(F81,F82)</f>
+        <v>0000</v>
+      </c>
+      <c r="H82" s="2" t="str">
+        <f>BIN2HEX(G82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1110</v>
+      </c>
+      <c r="H83" s="2" t="str">
+        <f>BIN2HEX(F83)</f>
+        <v>E</v>
+      </c>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C84" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="7">
+        <v>111</v>
+      </c>
+      <c r="H84" s="2" t="str">
+        <f>BIN2HEX(F84)</f>
+        <v>7</v>
+      </c>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" s="10">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f>CONCATENATE(F79,F88,F80,F87,F91)</f>
+        <v>1000010000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C86" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="7" t="str">
+        <f>CONCATENATE(F85,F86)</f>
+        <v>1101</v>
+      </c>
+      <c r="H86" s="2" t="str">
+        <f>BIN2HEX(G86)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H87" s="2" t="str">
+        <f>BIN2HEX(F87)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="11">
+        <v>110</v>
+      </c>
+      <c r="G89" s="2" t="str">
+        <f>CONCATENATE(F88,F89)</f>
+        <v>0110</v>
+      </c>
+      <c r="H89" s="2" t="str">
+        <f>BIN2HEX(G89)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" s="7">
+        <v>11</v>
+      </c>
+      <c r="H90" s="2" t="str">
+        <f>BIN2HEX(F90)</f>
+        <v>3</v>
+      </c>
       <c r="K90" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
+      <c r="D91" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="7">
+        <v>1111</v>
+      </c>
+      <c r="H94" s="2" t="str">
+        <f>BIN2HEX(F94)</f>
+        <v>F</v>
+      </c>
+      <c r="I94" s="2" t="str">
+        <f>CONCATENATE(H94,H96,H97,H98,H100,H101,H103,H104)</f>
+        <v>FEF405A3</v>
+      </c>
+      <c r="K94" s="2" t="str">
+        <f>CONCATENATE(F94,F95,F101,F102)</f>
+        <v>11111111011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="str">
+        <f>CONCATENATE(F95,F96)</f>
+        <v>1110</v>
+      </c>
+      <c r="H96" s="2" t="str">
+        <f>BIN2HEX(G96)</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="7">
+        <v>1111</v>
+      </c>
+      <c r="H97" s="2" t="str">
+        <f>BIN2HEX(F97)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="7">
+        <v>100</v>
+      </c>
+      <c r="H98" s="2" t="str">
+        <f>BIN2HEX(F98)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F100" s="11">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2" t="str">
+        <f>CONCATENATE(F99,F100)</f>
+        <v>00</v>
+      </c>
+      <c r="H100" s="2" t="str">
+        <f>BIN2HEX(G100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="7">
+        <v>101</v>
+      </c>
+      <c r="H101" s="2" t="str">
+        <f>BIN2HEX(F101)</f>
+        <v>5</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" s="2" t="str">
+        <f>CONCATENATE(F102,F103)</f>
+        <v>1010</v>
+      </c>
+      <c r="H103" s="2" t="str">
+        <f>BIN2HEX(G103)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" s="7">
+        <v>11</v>
+      </c>
+      <c r="H104" s="2" t="str">
+        <f>BIN2HEX(F104)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="7">
+        <v>111</v>
+      </c>
+      <c r="H107" s="2" t="str">
+        <f>BIN2HEX(F107)</f>
+        <v>7</v>
+      </c>
+      <c r="I107" s="2" t="str">
+        <f>CONCATENATE(H107,H108,H109,H110,H111,H112,H114,H115)</f>
+        <v>789FF7B7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H108" s="2" t="str">
+        <f t="shared" ref="H108:H112" si="21">BIN2HEX(F108)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1001</v>
+      </c>
+      <c r="H109" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1111</v>
+      </c>
+      <c r="H110" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1111</v>
+      </c>
+      <c r="H111" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C112" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="7">
+        <v>111</v>
+      </c>
+      <c r="H112" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="7" t="str">
+        <f>CONCATENATE(F113,F114)</f>
+        <v>1011</v>
+      </c>
+      <c r="H114" s="2" t="str">
+        <f>BIN2HEX(G114)</f>
+        <v>B</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="7">
+        <v>111</v>
+      </c>
+      <c r="H115" s="2" t="str">
+        <f t="shared" ref="H115" si="22">BIN2HEX(F115)</f>
+        <v>7</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C123" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G123" s="2" t="str">
+        <f>CONCATENATE(F122,F123)</f>
+        <v>0000</v>
+      </c>
+      <c r="H123" s="2" t="str">
+        <f>BIN2HEX(G123)</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="2" t="str">
+        <f>CONCATENATE(H123,H124,H126,H127,H128,H129,H131,H132)</f>
+        <v>00C0006F</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2" t="str">
+        <f>BIN2HEX(F124)</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="2" t="str">
+        <f>CONCATENATE(F122,F127,F128,F129,F126,F123,F124,F125,F133)</f>
+        <v>0000000001100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C126" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2" t="str">
+        <f>CONCATENATE(F125,F126)</f>
+        <v>1100</v>
+      </c>
+      <c r="H126" s="2" t="str">
+        <f>BIN2HEX(G126)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C127" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2" t="str">
+        <f>BIN2HEX(F127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2" t="str">
+        <f>BIN2HEX(F128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C129" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2" t="str">
+        <f>BIN2HEX(F129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C131" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G131" s="2" t="str">
+        <f>CONCATENATE(F130,F131)</f>
+        <v>0110</v>
+      </c>
+      <c r="H131" s="2" t="str">
+        <f>BIN2HEX(G131)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1111</v>
+      </c>
+      <c r="H132" s="2" t="str">
+        <f>BIN2HEX(F132)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C133" s="5"/>
+      <c r="D133" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2" t="str">
+        <f>BIN2HEX(F136)</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="2" t="str">
+        <f>CONCATENATE(H136,H137,H138,H139,H141,H142,H144,H145)</f>
+        <v>00008067</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2" t="str">
+        <f t="shared" ref="H137:H139" si="23">BIN2HEX(F137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="5"/>
+      <c r="C139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="C141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G141" s="2" t="str">
+        <f>CONCATENATE(F140,F141)</f>
+        <v>1000</v>
+      </c>
+      <c r="H141" s="2" t="str">
+        <f>BIN2HEX(G141)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
+      <c r="C142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2" t="str">
+        <f>BIN2HEX(F142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+      <c r="C144" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G144" s="2" t="str">
+        <f>CONCATENATE(F143,F144)</f>
+        <v>0110</v>
+      </c>
+      <c r="H144" s="2" t="str">
+        <f>BIN2HEX(G144)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="5"/>
+      <c r="E145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="7">
+        <v>111</v>
+      </c>
+      <c r="H145" s="2" t="str">
+        <f>BIN2HEX(F145)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="12">
+        <v>8067</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
